--- a/Test_data/TestDataPharamEasy_sprint2.xlsx
+++ b/Test_data/TestDataPharamEasy_sprint2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sai kumar\PycharmProjects\pythonProject2\pythonProject\pythonProject\pythonProject\pythonProject\Pharmeasy\Test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F3ABF2-BD00-4634-8068-EF380684DF9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52BA810-6711-438F-ACD6-BF359C8C847D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8B659C7F-0A78-4D34-9A8E-A76EAC561203}"/>
   </bookViews>
@@ -153,7 +153,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -165,6 +165,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -485,7 +488,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -516,7 +519,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>9742428125</v>
+        <v>7396424409</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
@@ -533,7 +536,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>9482408125</v>
+        <v>8639461234</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>12</v>
@@ -586,7 +589,7 @@
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="2">
